--- a/results/trend_volatility_results/processed_4phases_data/pivots/pivots_4phases_long.xlsx
+++ b/results/trend_volatility_results/processed_4phases_data/pivots/pivots_4phases_long.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,9 +432,10 @@
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
-    <col width="28" customWidth="1" min="9" max="9"/>
-    <col width="27" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="28" customWidth="1" min="10" max="10"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,32 +447,35 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C2" t="n">
         <v>2016</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2017</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>2018</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2019</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2020</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2021</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>2022</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>total_count_of_occurrences</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -491,31 +495,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
+        <v>62</v>
+      </c>
+      <c r="G4" t="n">
         <v>114</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>54</v>
       </c>
-      <c r="H4" t="n">
-        <v>123</v>
-      </c>
       <c r="I4" t="n">
-        <v>609</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>33.36986301369863</v>
+        <v>697</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33.57418111753372</v>
       </c>
     </row>
     <row r="5">
@@ -525,31 +532,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
         <v>57</v>
       </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I5" t="n">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="J5" t="n">
-        <v>16.05479452054795</v>
+        <v>375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.0635838150289</v>
       </c>
     </row>
     <row r="6">
@@ -559,31 +569,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D6" t="n">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E6" t="n">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F6" t="n">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="G6" t="n">
+        <v>71</v>
+      </c>
+      <c r="H6" t="n">
         <v>102</v>
       </c>
-      <c r="H6" t="n">
-        <v>36</v>
-      </c>
       <c r="I6" t="n">
-        <v>710</v>
+        <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>38.9041095890411</v>
+        <v>760</v>
+      </c>
+      <c r="K6" t="n">
+        <v>36.60886319845857</v>
       </c>
     </row>
     <row r="7">
@@ -593,31 +606,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69</v>
+      </c>
+      <c r="I7" t="n">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
-        <v>24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18</v>
-      </c>
-      <c r="G7" t="n">
-        <v>69</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>213</v>
-      </c>
       <c r="J7" t="n">
-        <v>11.67123287671233</v>
+        <v>244</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.7533718689788</v>
       </c>
     </row>
     <row r="8">
@@ -629,29 +645,35 @@
     </row>
     <row r="9">
       <c r="B9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D9" t="n">
         <v>2017</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>2018</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>2019</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>2020</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>2021</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>2022</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>total_count_of_occurrences</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -671,28 +693,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C11" t="n">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
+        <v>83</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
         <v>109</v>
       </c>
-      <c r="F11" t="n">
-        <v>54</v>
-      </c>
-      <c r="G11" t="n">
-        <v>129</v>
-      </c>
       <c r="H11" t="n">
-        <v>522</v>
+        <v>52</v>
       </c>
       <c r="I11" t="n">
-        <v>33.35463258785942</v>
+        <v>136</v>
+      </c>
+      <c r="J11" t="n">
+        <v>742</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.74181117533718</v>
       </c>
     </row>
     <row r="12">
@@ -702,28 +730,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H12" t="n">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>17.38019169329073</v>
+        <v>64</v>
+      </c>
+      <c r="J12" t="n">
+        <v>366</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17.63005780346821</v>
       </c>
     </row>
     <row r="13">
@@ -733,28 +767,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D13" t="n">
+        <v>133</v>
+      </c>
+      <c r="E13" t="n">
+        <v>86</v>
+      </c>
+      <c r="F13" t="n">
         <v>95</v>
       </c>
-      <c r="E13" t="n">
-        <v>77</v>
-      </c>
-      <c r="F13" t="n">
-        <v>162</v>
-      </c>
       <c r="G13" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="H13" t="n">
-        <v>616</v>
+        <v>160</v>
       </c>
       <c r="I13" t="n">
-        <v>39.36102236421725</v>
+        <v>50</v>
+      </c>
+      <c r="J13" t="n">
+        <v>772</v>
+      </c>
+      <c r="K13" t="n">
+        <v>37.1868978805395</v>
       </c>
     </row>
     <row r="14">
@@ -764,28 +804,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
+        <v>51</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
         <v>27</v>
       </c>
-      <c r="G14" t="n">
-        <v>11</v>
-      </c>
-      <c r="H14" t="n">
-        <v>155</v>
-      </c>
       <c r="I14" t="n">
-        <v>9.904153354632587</v>
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>196</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9.441233140655106</v>
       </c>
     </row>
     <row r="15">
@@ -797,29 +843,35 @@
     </row>
     <row r="16">
       <c r="B16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D16" t="n">
         <v>2017</v>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>2018</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>2019</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>2020</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>2021</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>2022</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>total_count_of_occurrences</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -839,28 +891,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C18" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D18" t="n">
+        <v>53</v>
+      </c>
+      <c r="E18" t="n">
+        <v>67</v>
+      </c>
+      <c r="F18" t="n">
         <v>75</v>
       </c>
-      <c r="E18" t="n">
-        <v>81</v>
-      </c>
-      <c r="F18" t="n">
-        <v>93</v>
-      </c>
       <c r="G18" t="n">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="H18" t="n">
-        <v>496</v>
+        <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>31.69329073482428</v>
+        <v>133</v>
+      </c>
+      <c r="J18" t="n">
+        <v>694</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33.42967244701349</v>
       </c>
     </row>
     <row r="19">
@@ -870,28 +928,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
+        <v>85</v>
+      </c>
+      <c r="D19" t="n">
+        <v>28</v>
+      </c>
+      <c r="E19" t="n">
         <v>33</v>
       </c>
-      <c r="D19" t="n">
-        <v>35</v>
-      </c>
-      <c r="E19" t="n">
-        <v>57</v>
-      </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H19" t="n">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="I19" t="n">
-        <v>17.31629392971246</v>
+        <v>69</v>
+      </c>
+      <c r="J19" t="n">
+        <v>379</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.25626204238921</v>
       </c>
     </row>
     <row r="20">
@@ -901,28 +965,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C20" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E20" t="n">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F20" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G20" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="H20" t="n">
-        <v>609</v>
+        <v>96</v>
       </c>
       <c r="I20" t="n">
-        <v>38.91373801916933</v>
+        <v>41</v>
+      </c>
+      <c r="J20" t="n">
+        <v>770</v>
+      </c>
+      <c r="K20" t="n">
+        <v>37.09055876685935</v>
       </c>
     </row>
     <row r="21">
@@ -932,28 +1002,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E21" t="n">
+        <v>45</v>
+      </c>
+      <c r="F21" t="n">
+        <v>24</v>
+      </c>
+      <c r="G21" t="n">
         <v>25</v>
       </c>
-      <c r="F21" t="n">
-        <v>28</v>
-      </c>
-      <c r="G21" t="n">
-        <v>20</v>
-      </c>
       <c r="H21" t="n">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="I21" t="n">
-        <v>12.07667731629393</v>
+        <v>17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>233</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.22350674373796</v>
       </c>
     </row>
     <row r="22">
@@ -965,29 +1041,35 @@
     </row>
     <row r="23">
       <c r="B23" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D23" t="n">
         <v>2017</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
         <v>2018</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>2019</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>2020</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>2021</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>2022</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>total_count_of_occurrences</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>percentage_of_occurrences</t>
         </is>
@@ -1007,28 +1089,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C25" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F25" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G25" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="H25" t="n">
-        <v>549</v>
+        <v>67</v>
       </c>
       <c r="I25" t="n">
-        <v>35.46511627906977</v>
+        <v>93</v>
+      </c>
+      <c r="J25" t="n">
+        <v>746</v>
+      </c>
+      <c r="K25" t="n">
+        <v>36.14341085271317</v>
       </c>
     </row>
     <row r="26">
@@ -1038,28 +1126,34 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>26</v>
+      </c>
+      <c r="C26" t="n">
+        <v>41</v>
+      </c>
+      <c r="D26" t="n">
         <v>21</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>19</v>
       </c>
-      <c r="D26" t="n">
-        <v>51</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="n">
         <v>38</v>
       </c>
-      <c r="F26" t="n">
-        <v>40</v>
-      </c>
-      <c r="G26" t="n">
-        <v>58</v>
-      </c>
       <c r="H26" t="n">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="I26" t="n">
-        <v>14.6640826873385</v>
+        <v>55</v>
+      </c>
+      <c r="J26" t="n">
+        <v>289</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.00193798449612</v>
       </c>
     </row>
     <row r="27">
@@ -1069,28 +1163,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C27" t="n">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D27" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E27" t="n">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F27" t="n">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G27" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H27" t="n">
-        <v>565</v>
+        <v>103</v>
       </c>
       <c r="I27" t="n">
-        <v>36.49870801033592</v>
+        <v>70</v>
+      </c>
+      <c r="J27" t="n">
+        <v>762</v>
+      </c>
+      <c r="K27" t="n">
+        <v>36.91860465116279</v>
       </c>
     </row>
     <row r="28">
@@ -1100,28 +1200,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D28" t="n">
+        <v>49</v>
+      </c>
+      <c r="E28" t="n">
+        <v>22</v>
+      </c>
+      <c r="F28" t="n">
         <v>34</v>
       </c>
-      <c r="E28" t="n">
-        <v>19</v>
-      </c>
-      <c r="F28" t="n">
-        <v>48</v>
-      </c>
       <c r="G28" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H28" t="n">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="I28" t="n">
-        <v>13.37209302325581</v>
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>267</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.93604651162791</v>
       </c>
     </row>
   </sheetData>
